--- a/لخضر خباش .xlsx
+++ b/لخضر خباش .xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t xml:space="preserve">*الملاحظات </t>
   </si>
@@ -509,9 +509,6 @@
     <t xml:space="preserve">لخضر خباش </t>
   </si>
   <si>
-    <t xml:space="preserve"> جانفي - فيفري</t>
-  </si>
-  <si>
     <t>مهندس دولة في الاعلام الالي</t>
   </si>
   <si>
@@ -524,22 +521,22 @@
     <t>12328308/80</t>
   </si>
   <si>
-    <t>مهمــــــــــــــــة اداريــــــــــة</t>
+    <t>اشغــــــــال طوبغرافيــــــــــة</t>
   </si>
   <si>
     <t>بسكرة -</t>
   </si>
   <si>
-    <t>ولاية باتنة</t>
-  </si>
-  <si>
-    <t>2021/07/18</t>
+    <t>ولاية الشلف</t>
+  </si>
+  <si>
+    <t>2021/08/01</t>
   </si>
   <si>
     <t>06:00</t>
   </si>
   <si>
-    <t>2021/07/20</t>
+    <t>2021/08/04</t>
   </si>
   <si>
     <t>23:00</t>
@@ -548,19 +545,19 @@
     <t>سيـــارة اداريــة</t>
   </si>
   <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>ولاية أدرار</t>
-  </si>
-  <si>
-    <t>2021/08/01</t>
-  </si>
-  <si>
-    <t>2021/08/04</t>
-  </si>
-  <si>
-    <t>585</t>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>ولاية بجاية</t>
+  </si>
+  <si>
+    <t>2021/08/15</t>
+  </si>
+  <si>
+    <t>2021/08/17</t>
+  </si>
+  <si>
+    <t>7932</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.75">
       <c r="A12" s="165" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B12" s="165"/>
       <c r="C12" s="165"/>
@@ -2546,7 +2543,7 @@
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" thickBot="1">
       <c r="B15" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="165"/>
       <c r="D15" s="165"/>
@@ -2554,7 +2551,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="165"/>
       <c r="H15" s="165"/>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="17" spans="1:22" ht="16.5" thickBot="1">
       <c r="B17" s="165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="165"/>
       <c r="D17" s="165"/>
@@ -2647,7 +2644,7 @@
         <v>400.0</v>
       </c>
       <c r="P18" s="101" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q18" s="101"/>
       <c r="R18" s="101"/>
@@ -2661,7 +2658,7 @@
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="165"/>
       <c r="C19" s="165"/>
@@ -2670,7 +2667,7 @@
       </c>
       <c r="E19" s="176"/>
       <c r="F19" s="165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="165"/>
       <c r="H19" s="165"/>
@@ -2687,7 +2684,7 @@
         <v>1200.0</v>
       </c>
       <c r="P19" s="101" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q19" s="101"/>
       <c r="R19" s="101"/>
@@ -2713,15 +2710,9 @@
       <c r="J20" s="178"/>
       <c r="K20" s="90"/>
       <c r="L20" s="88"/>
-      <c r="N20" s="122">
-        <f>PRODUCT(O20:P20)</f>
-      </c>
-      <c r="O20" s="124" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="P20" s="101" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="N20" s="122"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="101"/>
       <c r="Q20" s="101"/>
       <c r="R20" s="101"/>
       <c r="S20" s="101" t="s">
@@ -2745,15 +2736,9 @@
       <c r="J21" s="89"/>
       <c r="K21" s="90"/>
       <c r="L21" s="88"/>
-      <c r="N21" s="122">
-        <f>PRODUCT(O21:P21)</f>
-      </c>
-      <c r="O21" s="124" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="P21" s="101" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="N21" s="122"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="101"/>
       <c r="Q21" s="101"/>
       <c r="R21" s="101"/>
       <c r="S21" s="101" t="s">
@@ -2842,7 +2827,7 @@
       <c r="K25" s="90"/>
       <c r="L25" s="88"/>
       <c r="N25" s="122" t="n">
-        <v>13300.0</v>
+        <v>11600.0</v>
       </c>
       <c r="O25" s="84" t="s">
         <v>68</v>
@@ -3083,7 +3068,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="L38" s="135" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M38" s="135"/>
       <c r="N38" s="136" t="s">
@@ -3513,15 +3498,15 @@
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="108"/>
       <c r="D9" s="108" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" s="108"/>
       <c r="F9" s="109" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -3529,74 +3514,74 @@
       <c r="J9" s="107"/>
       <c r="K9" s="4"/>
       <c r="L9" s="115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M9" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O9" s="118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P9" s="117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="119"/>
       <c r="R9" s="120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S9" s="121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T9" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="110" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F10" s="111"/>
+        <v>120</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111" t="n">
+        <v>6.0</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="29"/>
       <c r="L10" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N10" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="68" t="s">
         <v>90</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T10" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18.75">
